--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
   <si>
     <t>Choice</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>AdviceVar1</t>
+  </si>
+  <si>
+    <t>GambleAdvice</t>
+  </si>
+  <si>
+    <t>Not_GamblePercent</t>
   </si>
 </sst>
 </file>
@@ -818,18 +824,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,8 +856,14 @@
       <c r="F1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -868,8 +882,14 @@
       <c r="F2" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -888,8 +908,14 @@
       <c r="F3" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -908,8 +934,14 @@
       <c r="F4" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -928,8 +960,14 @@
       <c r="F5" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -948,8 +986,14 @@
       <c r="F6" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -968,8 +1012,14 @@
       <c r="F7" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -988,8 +1038,14 @@
       <c r="F8" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1008,8 +1064,14 @@
       <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1028,8 +1090,14 @@
       <c r="F10" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1048,8 +1116,14 @@
       <c r="F11" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1068,8 +1142,14 @@
       <c r="F12" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1088,8 +1168,14 @@
       <c r="F13" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1108,8 +1194,14 @@
       <c r="F14" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1128,8 +1220,14 @@
       <c r="F15" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1148,8 +1246,14 @@
       <c r="F16" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1168,8 +1272,14 @@
       <c r="F17" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1188,8 +1298,14 @@
       <c r="F18" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1208,8 +1324,14 @@
       <c r="F19" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1228,8 +1350,14 @@
       <c r="F20" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1248,8 +1376,14 @@
       <c r="F21" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1268,8 +1402,14 @@
       <c r="F22" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1288,8 +1428,14 @@
       <c r="F23" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1308,8 +1454,14 @@
       <c r="F24" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1328,8 +1480,14 @@
       <c r="F25" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1348,8 +1506,14 @@
       <c r="F26" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1368,8 +1532,14 @@
       <c r="F27" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1388,8 +1558,14 @@
       <c r="F28" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1408,8 +1584,14 @@
       <c r="F29" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1428,8 +1610,14 @@
       <c r="F30" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1448,8 +1636,14 @@
       <c r="F31" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1468,8 +1662,14 @@
       <c r="F32" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1487,6 +1687,12 @@
       </c>
       <c r="F33" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\GamblingAdviceTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\GamblingAdviceTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3706B65D-C62E-400D-B792-0D09F618ACF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
   <si>
     <t>Choice</t>
   </si>
@@ -504,12 +505,48 @@
   </si>
   <si>
     <t>Not_GamblePercent</t>
+  </si>
+  <si>
+    <t>Pictures\IA100_G20.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA100_G40.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA100_G60.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA100_G80.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA25_G5.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA25_G10.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA25_G15.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA25_G20.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA75_G15.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA75_G30.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA75_G45.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA75_G60.bmp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,21 +860,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +902,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -889,7 +928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -915,7 +954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -941,7 +980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -967,12 +1006,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -993,12 +1032,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1019,12 +1058,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1045,12 +1084,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1071,12 +1110,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1097,12 +1136,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1123,12 +1162,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -1149,12 +1188,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -1175,12 +1214,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -1201,12 +1240,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -1227,12 +1266,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -1253,12 +1292,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -1279,7 +1318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1305,7 +1344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1357,7 +1396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1383,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1435,7 +1474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1565,7 +1604,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1591,7 +1630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1617,7 +1656,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1643,7 +1682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1669,7 +1708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\GamblingAdviceTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\GamblingAdviceTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6EC688-9F36-49C7-B432-2CD53F8D1681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
   <si>
     <t>Choice</t>
   </si>
@@ -275,12 +276,21 @@
   </si>
   <si>
     <t>GambleAdviceNum</t>
+  </si>
+  <si>
+    <t>GambleAdviceType</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,23 +604,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +636,11 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -643,8 +656,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -660,8 +676,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -677,8 +696,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -694,8 +716,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -711,8 +736,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -728,8 +756,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -745,8 +776,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -762,8 +796,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -779,8 +816,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -796,8 +836,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -813,8 +856,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -830,8 +876,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -847,8 +896,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -864,8 +916,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -881,8 +936,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -898,8 +956,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -915,8 +976,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -932,8 +996,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -949,8 +1016,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -966,8 +1036,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -983,8 +1056,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1000,8 +1076,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1096,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1034,8 +1116,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1051,8 +1136,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1068,8 +1156,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1085,8 +1176,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1102,8 +1196,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1119,8 +1216,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1136,8 +1236,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1153,8 +1256,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1169,6 +1275,9 @@
       </c>
       <c r="E33">
         <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\GamblingAdviceTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6EC688-9F36-49C7-B432-2CD53F8D1681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420251AD-735A-4608-8DD7-82AB1D794037}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="88">
   <si>
     <t>Choice</t>
   </si>
@@ -285,6 +285,42 @@
   </si>
   <si>
     <t>risk</t>
+  </si>
+  <si>
+    <t>Pictures\IA20_10_G95p.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA20_10_L95p.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA20.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA40.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA40_20_L95p.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA40_20_G95p.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA80_40_G95p.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA80.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA80_40_L95p.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA110.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA110_55_G95p.bmp</t>
+  </si>
+  <si>
+    <t>Pictures\IA110_55_L95p.bmp</t>
   </si>
 </sst>
 </file>
@@ -605,16 +641,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
@@ -1280,6 +1317,710 @@
         <v>75</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\GamblingAdviceTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\GamblingAdviceTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420251AD-735A-4608-8DD7-82AB1D794037}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="89">
   <si>
     <t>Choice</t>
   </si>
@@ -321,12 +320,16 @@
   </si>
   <si>
     <t>Pictures\IA110_55_L95p.bmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"I think you should not gamble."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,24 +643,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:C97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -697,7 +700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -717,7 +720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -737,7 +740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -757,7 +760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -777,7 +780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -797,7 +800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -817,7 +820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -837,7 +840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -857,7 +860,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -877,7 +880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -897,7 +900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -917,7 +920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -937,7 +940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -957,7 +960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -977,7 +980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1327,8 +1330,17 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1338,8 +1350,17 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1349,8 +1370,17 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1360,8 +1390,17 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1371,8 +1410,17 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1382,8 +1430,17 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1393,8 +1450,17 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -1404,8 +1470,17 @@
       <c r="C41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1415,8 +1490,17 @@
       <c r="C42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1426,8 +1510,17 @@
       <c r="C43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1437,8 +1530,17 @@
       <c r="C44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -1448,8 +1550,17 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1459,8 +1570,17 @@
       <c r="C46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -1470,8 +1590,17 @@
       <c r="C47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -1481,8 +1610,17 @@
       <c r="C48" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1492,8 +1630,17 @@
       <c r="C49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1503,8 +1650,17 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1514,8 +1670,17 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1690,17 @@
       <c r="C52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1536,8 +1710,17 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1547,8 +1730,17 @@
       <c r="C54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1558,8 +1750,17 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1569,8 +1770,17 @@
       <c r="C56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1580,8 +1790,17 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1591,8 +1810,17 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1602,8 +1830,17 @@
       <c r="C59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1613,8 +1850,17 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1624,8 +1870,17 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -1635,8 +1890,17 @@
       <c r="C62" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1646,8 +1910,17 @@
       <c r="C63" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1657,8 +1930,17 @@
       <c r="C64" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1668,8 +1950,17 @@
       <c r="C65" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -1679,8 +1970,17 @@
       <c r="C66" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -1690,8 +1990,17 @@
       <c r="C67" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -1701,8 +2010,17 @@
       <c r="C68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -1712,8 +2030,17 @@
       <c r="C69" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -1723,8 +2050,17 @@
       <c r="C70" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -1734,8 +2070,17 @@
       <c r="C71" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1745,8 +2090,17 @@
       <c r="C72" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -1756,8 +2110,17 @@
       <c r="C73" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -1767,8 +2130,17 @@
       <c r="C74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -1778,8 +2150,17 @@
       <c r="C75" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -1789,8 +2170,17 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -1800,8 +2190,17 @@
       <c r="C77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -1811,8 +2210,17 @@
       <c r="C78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1822,8 +2230,17 @@
       <c r="C79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1833,8 +2250,17 @@
       <c r="C80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1844,8 +2270,17 @@
       <c r="C81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1855,8 +2290,17 @@
       <c r="C82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1866,8 +2310,17 @@
       <c r="C83" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1877,8 +2330,17 @@
       <c r="C84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1888,8 +2350,17 @@
       <c r="C85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1899,8 +2370,17 @@
       <c r="C86" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -1910,8 +2390,17 @@
       <c r="C87" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -1921,8 +2410,17 @@
       <c r="C88" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -1932,8 +2430,17 @@
       <c r="C89" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -1943,8 +2450,17 @@
       <c r="C90" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -1954,8 +2470,17 @@
       <c r="C91" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -1965,8 +2490,17 @@
       <c r="C92" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -1976,8 +2510,17 @@
       <c r="C93" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -1987,8 +2530,17 @@
       <c r="C94" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -1998,8 +2550,17 @@
       <c r="C95" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -2009,8 +2570,17 @@
       <c r="C96" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -2019,6 +2589,15 @@
       </c>
       <c r="C97" t="s">
         <v>85</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\GamblingAdviceTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\GamblingAdviceTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64DE407-A11C-4F7D-A457-92A50647F0B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,24 +644,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -700,7 +701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -720,7 +721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -740,7 +741,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -760,7 +761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -780,7 +781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -800,7 +801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -820,7 +821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -840,7 +841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -860,7 +861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -880,7 +881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -900,7 +901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -920,7 +921,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -940,7 +941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -960,7 +961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -980,7 +981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\GamblingAdviceTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\GamblingAdviceTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64DE407-A11C-4F7D-A457-92A50647F0B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,24 +643,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -701,7 +700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -721,7 +720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -741,7 +740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -761,7 +760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -781,7 +780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -801,7 +800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -821,7 +820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -841,7 +840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -861,7 +860,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -881,7 +880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -901,7 +900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -921,7 +920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -941,7 +940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -961,7 +960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -981,7 +980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2341,7 +2340,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
   <si>
     <t>Choice</t>
   </si>
@@ -320,10 +320,6 @@
   </si>
   <si>
     <t>Pictures\IA110_55_L95p.bmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"I think you should not gamble."</t>
   </si>
 </sst>
 </file>
@@ -644,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,16 +1318,16 @@
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1342,16 +1338,16 @@
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1362,56 +1358,56 @@
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1422,1181 +1418,61 @@
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>86</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/GamblingAdviceTask/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/GamblingAdviceTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC173B4-0765-634A-AD16-62A7D343F86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="28340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11320" yWindow="4760" windowWidth="28340" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="89">
   <si>
     <t>Choice</t>
   </si>
@@ -321,12 +326,16 @@
   </si>
   <si>
     <t>Pictures/IA110_55_L95p.bmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Trust me–gamble!"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,10 +649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -675,7 +686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -695,7 +706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -715,7 +726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -735,7 +746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -755,7 +766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -775,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -795,7 +806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -815,7 +826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -835,7 +846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -855,7 +866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -875,7 +886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -895,7 +906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -915,7 +926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -935,7 +946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -955,7 +966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -975,7 +986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1035,7 +1046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1055,7 +1066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1135,7 +1146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1155,7 +1166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -1175,7 +1186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -1195,7 +1206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1235,7 +1246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1246,7 +1257,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1255,7 +1266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1275,7 +1286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1355,7 +1366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1375,7 +1386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1415,7 +1426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1455,7 +1466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>87</v>
       </c>
